--- a/data/Inflow_2019_hourly_Sampe_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sampe_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Inflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7644E46D-D82C-4463-A0FA-CA4962FE980C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD1FEE0-F5D0-4717-9D5E-ED4B5894D058}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="temo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$C$1</definedName>
@@ -405,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274753D-017C-4F41-BA78-A55EAD7024E7}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,7 +432,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -443,7 +444,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -455,7 +456,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -467,7 +468,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -479,7 +480,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>457</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -491,7 +492,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -503,7 +504,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -515,7 +516,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -527,7 +528,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -539,7 +540,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -551,7 +552,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,7 +564,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -575,7 +576,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -587,7 +588,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -599,7 +600,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -611,7 +612,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -623,7 +624,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -635,7 +636,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -647,7 +648,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -659,7 +660,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -671,7 +672,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,7 +684,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -695,7 +696,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -707,7 +708,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,7 +720,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -731,7 +732,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -743,7 +744,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,7 +756,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -767,7 +768,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -779,7 +780,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -791,7 +792,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>435</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -803,7 +804,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -815,7 +816,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -827,7 +828,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>516</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -839,7 +840,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -851,7 +852,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -863,7 +864,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -875,7 +876,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -887,7 +888,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -899,7 +900,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -911,7 +912,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -923,7 +924,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -935,7 +936,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -947,7 +948,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -959,7 +960,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -971,7 +972,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -983,7 +984,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -995,7 +996,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1007,7 +1008,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1031,7 +1032,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1043,7 +1044,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1067,7 +1068,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>518</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1079,7 +1080,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1091,7 +1092,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1103,7 +1104,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1115,7 +1116,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1127,7 +1128,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1139,7 +1140,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1151,7 +1152,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1163,7 +1164,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1175,7 +1176,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1187,7 +1188,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>359</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1211,7 +1212,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>27</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1223,7 +1224,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1247,7 +1248,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>390</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1259,7 +1260,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1283,7 +1284,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1295,7 +1296,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,7 +1308,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1331,7 +1332,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>510</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1343,7 +1344,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1355,7 +1356,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1367,7 +1368,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1379,7 +1380,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1391,7 +1392,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1403,7 +1404,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>467</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1415,7 +1416,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1427,7 +1428,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>333</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1451,7 +1452,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>528</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1463,7 +1464,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>503</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1475,7 +1476,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>516</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1487,7 +1488,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>235</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1499,7 +1500,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1511,7 +1512,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1523,7 +1524,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1535,7 +1536,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1547,7 +1548,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1559,7 +1560,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1571,7 +1572,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1583,7 +1584,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>463</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1595,7 +1596,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1607,7 +1608,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>427</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1631,7 +1632,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>533</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1643,7 +1644,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1655,7 +1656,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1667,7 +1668,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1679,7 +1680,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1691,7 +1692,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>520</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1703,7 +1704,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>370</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1715,7 +1716,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1727,7 +1728,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1739,7 +1740,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1751,7 +1752,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1763,7 +1764,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>508</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1775,7 +1776,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1787,7 +1788,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1799,7 +1800,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1811,7 +1812,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1823,7 +1824,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>495</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1835,7 +1836,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>241</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1847,7 +1848,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1859,7 +1860,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>532</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1871,7 +1872,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2854,4 +2855,24 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C093E5-03ED-44BD-91FE-22A352193DC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>